--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729395.6118553684</v>
+        <v>-731283.1933717699</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>526188.715459982</v>
+        <v>226496.4856656591</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>131.3732298896314</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>193.7458086606818</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>86.61795312280718</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>86.78911478711521</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>396.4819972923678</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>73.73815286533296</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>146.6850513083903</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>120.7419800545114</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>295.9004433758487</v>
+        <v>113.32048693113</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.60620160013897</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2381480623299</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>65.54747322919643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.3922150510015</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896895</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>28.22523322473766</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>22.34996096645796</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.31184871996194</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.9838208752071</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1796758466999</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>75.06705067831066</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>132.7170563065808</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>195.8155841663231</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>111.9679966130646</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>112.2792196973216</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533799</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700705</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965517</v>
+        <v>93.41221638965497</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801199</v>
+        <v>91.23070601801179</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437406</v>
+        <v>90.21779139437386</v>
       </c>
       <c r="G31" t="n">
-        <v>21.65873182144223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897894</v>
+        <v>6.749002612122612</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523562</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.03409577002</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952706</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080336</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235374</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463136</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.00952757579</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C2" t="n">
-        <v>806.0470106353782</v>
+        <v>1271.815289262514</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>913.549590655764</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>527.7613380575197</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4334,46 +4334,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2282.811586959294</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1951.748699615723</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1951.748699615723</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1951.748699615723</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.609367639912</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.840561024597</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>513.840561024597</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>513.840561024597</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>513.840561024597</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>513.840561024597</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>344.8407607629294</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>187.0923881954596</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>513.840561024597</v>
+        <v>462.8996339820025</v>
       </c>
       <c r="T4" t="n">
-        <v>513.840561024597</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="U4" t="n">
-        <v>513.840561024597</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>513.840561024597</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>513.840561024597</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>513.840561024597</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.840561024597</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1353.054351842972</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C5" t="n">
-        <v>1353.054351842972</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1353.054351842972</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>1353.054351842972</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.654191907093</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.654191907093</v>
+        <v>1919.063478780785</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>606.1673881917762</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>391.878965009939</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>391.878965009939</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>391.878965009939</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>391.878965009939</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>391.878965009939</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.546482223453</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830418</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1749.685814199265</v>
+        <v>2309.020596206506</v>
       </c>
       <c r="W8" t="n">
-        <v>1749.685814199265</v>
+        <v>1956.251940936392</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.685814199265</v>
+        <v>1582.786182675312</v>
       </c>
       <c r="Y8" t="n">
-        <v>1359.546482223453</v>
+        <v>1192.6468506995</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>352.67413830922</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>352.67413830922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="V10" t="n">
-        <v>97.9896501033331</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W10" t="n">
-        <v>97.9896501033331</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X10" t="n">
-        <v>97.9896501033331</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.9896501033331</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5033,7 +5033,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>327.180197328635</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M12" t="n">
-        <v>647.5155168583368</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N12" t="n">
-        <v>1364.414563824403</v>
+        <v>1402.926441340468</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2072.390202643127</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.1356072130308</v>
+        <v>310.3166078765764</v>
       </c>
       <c r="C13" t="n">
-        <v>657.1994242851239</v>
+        <v>310.3166078765764</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727881</v>
+        <v>310.3166078765764</v>
       </c>
       <c r="E13" t="n">
-        <v>359.169691290395</v>
+        <v>310.3166078765764</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>163.4266603786661</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>163.4266603786661</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>163.4266603786661</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688049</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799341</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471169</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980057</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.08282758574</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.9162705579</v>
+        <v>1298.996260473449</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.9162705579</v>
+        <v>1075.210845262954</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.9162705579</v>
+        <v>1075.210845262954</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352013</v>
+        <v>820.5263570570675</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150525</v>
+        <v>531.1091870201069</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150525</v>
+        <v>531.1091870201069</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.1356072130308</v>
+        <v>310.3166078765764</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028583</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>417.5524109899876</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N15" t="n">
-        <v>1221.963989254138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O15" t="n">
-        <v>1891.427750556797</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2411.728372292545</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>565.9270610048576</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>565.9270610048576</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1470.405933967258</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1270.48592388281</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="W16" t="n">
-        <v>809.295358296325</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X16" t="n">
-        <v>786.7196401483877</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y16" t="n">
-        <v>565.9270610048576</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5504,40 +5504,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M18" t="n">
-        <v>417.5524109899876</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N18" t="n">
-        <v>1221.963989254138</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O18" t="n">
-        <v>1891.427750556797</v>
+        <v>1980.501175652876</v>
       </c>
       <c r="P18" t="n">
-        <v>2411.728372292545</v>
+        <v>2500.801797388624</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>958.0114883989233</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>958.0114883989233</v>
       </c>
       <c r="W19" t="n">
-        <v>898.5039869983192</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="X19" t="n">
-        <v>670.5144361003019</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y19" t="n">
-        <v>449.7218569567717</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5768,13 +5768,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>843.9587363963142</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028586</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5966,10 +5966,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,16 +5981,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,31 +6005,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>111.0168333849122</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>111.0168333849122</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>340.9799392532614</v>
       </c>
       <c r="M24" t="n">
-        <v>629.3975440735812</v>
+        <v>661.3152587829632</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.809122337732</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1253.783534486818</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1029.998119276324</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609661</v>
+        <v>740.8694804898822</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550792</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181186</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581962</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,31 +6209,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>684.6446521972974</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1453.012798589759</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,25 +6409,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1274.742180641885</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227918</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V28" t="n">
-        <v>761.5137598931742</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W28" t="n">
-        <v>472.0965898562135</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X28" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>865.5852378527472</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N30" t="n">
-        <v>1669.996816116898</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O30" t="n">
-        <v>2339.460577419557</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163797</v>
+        <v>494.8466681110274</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698437</v>
+        <v>381.6713504644915</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388788</v>
+        <v>287.3155763335269</v>
       </c>
       <c r="E31" t="n">
-        <v>304.8808237378566</v>
+        <v>195.1633480325047</v>
       </c>
       <c r="F31" t="n">
-        <v>213.7517415213172</v>
+        <v>104.0342658159653</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>104.0342658159653</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864675</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.087636293351</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667521</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962067</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286026</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353695</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021649</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056077</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056077</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1791.966918253001</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1623.942368323877</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1390.574594818807</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1191.650971894291</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818949</v>
+        <v>957.9946671387013</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652485</v>
+        <v>785.765981522055</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652485</v>
+        <v>620.734267659896</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,22 +6780,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M33" t="n">
-        <v>865.5852378527472</v>
+        <v>754.9984739765641</v>
       </c>
       <c r="N33" t="n">
-        <v>1669.996816116898</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O33" t="n">
-        <v>2339.460577419557</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,13 +6920,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6950,7 +6950,7 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>122.8749291486853</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>352.8380350170345</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606512</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1466.525085699305</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.988847001965</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,10 +7351,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M45" t="n">
-        <v>865.5852378527474</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N45" t="n">
-        <v>1669.996816116898</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O45" t="n">
-        <v>2339.460577419557</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>225.219846491826</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417975</v>
+        <v>249.0918826322875</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9720,7 +9720,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9969,10 +9969,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>447.6499092655453</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>163.7584467404191</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>317.656456870047</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>277.0952454438736</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>44.87177223507557</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.19243830109328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>81.73911917905514</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>203.3596944225792</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.5201314619754</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>82.25353152337027</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>103.0576765518775</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>143.5176026737841</v>
       </c>
     </row>
     <row r="23">
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>65.20375367702249</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>29.89407122271402</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>85.95281337053866</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>139.8584236265064</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>89.63158001337816</v>
+        <v>111.2903118348202</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>86.96156912685613</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571481</v>
+        <v>55.21598883571461</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523542</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1192638.632200012</v>
+        <v>1192638.632200013</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1240807.518903074</v>
+        <v>1240807.518903075</v>
       </c>
     </row>
     <row r="12">
@@ -26314,10 +26314,10 @@
         <v>184734.3982194636</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
         <v>175963.076881969</v>
@@ -26326,7 +26326,7 @@
         <v>175963.0768819689</v>
       </c>
       <c r="G2" t="n">
-        <v>175963.0768819689</v>
+        <v>175963.076881969</v>
       </c>
       <c r="H2" t="n">
         <v>175963.0768819689</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194641</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.398219464</v>
+        <v>184734.3982194641</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194641</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284591</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086663</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.899641119962325e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284595</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905758786</v>
+        <v>787.79369057585</v>
       </c>
       <c r="F4" t="n">
-        <v>787.793690575957</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758772</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759302</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.79369057589</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758629</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477244</v>
+        <v>18952.4162047725</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189632</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189626</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189632</v>
-      </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26479,16 +26479,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627151.6982391094</v>
+        <v>-627151.6982391092</v>
       </c>
       <c r="C6" t="n">
-        <v>-37183.81902456487</v>
+        <v>-37183.81902456484</v>
       </c>
       <c r="D6" t="n">
-        <v>-37183.81902456487</v>
+        <v>-37183.81902456481</v>
       </c>
       <c r="E6" t="n">
-        <v>-441972.0792342196</v>
+        <v>-442069.5383601917</v>
       </c>
       <c r="F6" t="n">
-        <v>83187.95724267638</v>
+        <v>83090.49811670429</v>
       </c>
       <c r="G6" t="n">
-        <v>83187.95724267645</v>
+        <v>83090.4981167043</v>
       </c>
       <c r="H6" t="n">
-        <v>83187.95724267639</v>
+        <v>83090.49811670423</v>
       </c>
       <c r="I6" t="n">
-        <v>83187.95724267644</v>
+        <v>83090.49811670426</v>
       </c>
       <c r="J6" t="n">
-        <v>-93235.2619499165</v>
+        <v>-93332.72107588869</v>
       </c>
       <c r="K6" t="n">
-        <v>23326.73176753022</v>
+        <v>23308.23802959561</v>
       </c>
       <c r="L6" t="n">
-        <v>53469.80466667554</v>
+        <v>53469.80466667569</v>
       </c>
       <c r="M6" t="n">
-        <v>-70988.30376629476</v>
+        <v>-70988.30376629483</v>
       </c>
       <c r="N6" t="n">
-        <v>63812.71146754221</v>
+        <v>63812.71146754239</v>
       </c>
       <c r="O6" t="n">
-        <v>63812.71146754245</v>
+        <v>63812.71146754231</v>
       </c>
       <c r="P6" t="n">
-        <v>19650.10616469661</v>
+        <v>19650.10616469635</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26823,7 +26823,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108351</v>
+        <v>12.92863350108328</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855744</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>275.50281585208</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>57.47835884760747</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>48.34766866953105</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>125.3564241629037</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.39404844934364</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>275.5028158520801</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>20.56176979023752</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>25.92321192564647</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>31.85181509428617</v>
+        <v>214.4317715390049</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.2257785817983</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0.04372617964787651</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-2.196383757076064e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.927418225022848e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855738</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31127,16 +31127,16 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31379,7 +31379,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653305</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31841,7 +31841,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -31850,19 +31850,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>376.1397892206544</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>63.43474313802665</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -32078,28 +32078,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.8894692628929</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -32321,22 +32321,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>143.8894692628929</v>
+        <v>43.17892664331846</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32552,7 +32552,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -32567,13 +32567,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32731,7 +32731,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
         <v>76.06970478104648</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>14.68572458345622</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>213.9849829127208</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
@@ -32804,13 +32804,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -33026,28 +33026,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>66.45019460450777</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33205,7 +33205,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104648</v>
@@ -33269,19 +33269,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>340.8546090773502</v>
       </c>
       <c r="P30" t="n">
-        <v>102.4943942860912</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33506,19 +33506,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>102.4943942860912</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33670,10 +33670,10 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33743,22 +33743,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555639</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,16 +34138,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,19 +34208,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>438.8990799427509</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34229,16 +34229,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,25 +34375,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927201</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34451,31 +34451,31 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>102.4943942860908</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,19 +35498,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>724.1404514808746</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>247.9231043636336</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299082</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,7 +35580,7 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515205969</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>83.08581256980774</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.9849829127205</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.9849829127205</v>
+        <v>113.274440293146</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197792</v>
+        <v>106.9578487102692</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
@@ -36215,13 +36215,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>13.93913325719836</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>537.5560127407024</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
@@ -36452,13 +36452,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>298.7361601280928</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>592.1206839096353</v>
       </c>
       <c r="P30" t="n">
-        <v>286.9827555116981</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941227</v>
+        <v>67.7110267941229</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084859</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075299</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.480134434161</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491602</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043193</v>
+        <v>94.42895660043213</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>305.5158753435269</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>286.9827555116981</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37318,10 +37318,10 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>25.91700776606007</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004663</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157842</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>183.6820494557168</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>762.4701097707325</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>134.9612115218553</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>286.9827555116977</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
